--- a/Invoice/Begin Transaction for Contact/Main.rvl.xlsx
+++ b/Invoice/Begin Transaction for Contact/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
   <si>
     <t>Flow</t>
   </si>
@@ -70,6 +70,51 @@
   </si>
   <si>
     <t>C:\SpiraRepository\UX 365 Regression Testing\Invoice\Create Invoice</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>****Test runs all tests that must be run inorder to create a new customer and invoice from start to finish.</t>
+  </si>
+  <si>
+    <t>********Run Test: Create Batch*******</t>
+  </si>
+  <si>
+    <t>DoPlayScript</t>
+  </si>
+  <si>
+    <t>scriptPath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Accounting\Create Batch\Main.rvl.xlsx</t>
+  </si>
+  <si>
+    <t>********Run Test: Create Contact*******</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Contacts\Create new contact\Main.rvl.xlsx</t>
+  </si>
+  <si>
+    <t>********Run Test: Create Invoice*******</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Invoice\Create Invoice\Main.rvl.xlsx</t>
   </si>
 </sst>
 </file>
@@ -90,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="170">
+  <borders count="179">
     <border>
       <left/>
       <right/>
@@ -267,11 +312,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -442,6 +496,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="170" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="172" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H34"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -501,89 +564,120 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="171"/>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="168"/>
-      <c r="B5" t="s">
+    <row r="6">
+      <c r="A6" s="173"/>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="172"/>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="167"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="166" t="s">
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="167"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="165"/>
-      <c r="B8" t="s">
+    <row r="10">
+      <c r="A10" s="175"/>
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="164"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="163" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
+      <c r="G10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="162"/>
+      <c r="A11" s="174"/>
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -591,190 +685,246 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="161"/>
+      <c r="A12" s="164"/>
     </row>
     <row r="13">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
+      <c r="A13" s="163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
+      <c r="A14" s="178"/>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
+      <c r="A15" s="177"/>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
+      <c r="A16" s="176"/>
     </row>
     <row r="17">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="64"/>
+      <c r="A17" s="161"/>
     </row>
     <row r="18">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="72"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19">
-      <c r="A19" s="73"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="80"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="88"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="48"/>
     </row>
     <row r="21">
-      <c r="A21" s="89"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="96"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="56"/>
     </row>
     <row r="22">
-      <c r="A22" s="97"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="104"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64"/>
     </row>
     <row r="23">
-      <c r="A23" s="105"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="112"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="72"/>
     </row>
     <row r="24">
-      <c r="A24" s="113"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="120"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80"/>
     </row>
     <row r="25">
-      <c r="A25" s="121"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="128"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="88"/>
     </row>
     <row r="26">
-      <c r="A26" s="129"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="136"/>
+      <c r="A26" s="89"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="96"/>
     </row>
     <row r="27">
-      <c r="A27" s="137"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="144"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="104"/>
     </row>
     <row r="28">
-      <c r="A28" s="145"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="152"/>
+      <c r="A28" s="105"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="112"/>
     </row>
     <row r="29">
-      <c r="A29" s="153"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="160"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="120"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="121"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="128"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="129"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="136"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="137"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="144"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="145"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="152"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="153"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="160"/>
     </row>
   </sheetData>
 </worksheet>
